--- a/차종분류시험.xlsx
+++ b/차종분류시험.xlsx
@@ -24,15 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>차종분류 모델 시험</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>thresh old</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>시험 샘플</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -59,6 +51,34 @@
   </si>
   <si>
     <t>합계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>train</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>threshold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>threshold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험 샘플(test)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>차종분류 모델 2차시험</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>차종분류 모델 3차시험</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -418,41 +438,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <f>B4-B6</f>
@@ -462,10 +499,21 @@
         <f>B5/B4</f>
         <v>0.96899999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>G4-G6</f>
+        <v>3575</v>
+      </c>
+      <c r="H5" s="3">
+        <f>G5/G4</f>
+        <v>0.99416017797552836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>31</v>
@@ -474,15 +522,28 @@
         <f>B6/B4</f>
         <v>3.1E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>21</v>
+      </c>
+      <c r="H6" s="3">
+        <f>G6/G4</f>
+        <v>5.8398220244716354E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -491,10 +552,20 @@
         <f>B8/B5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <f>G8/G5</f>
+        <v>2.7972027972027972E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -503,10 +574,20 @@
         <f>B9/B5</f>
         <v>3.0959752321981426E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <f>G9/G5</f>
+        <v>2.7972027972027972E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <f>SUM(B8:B9)</f>
@@ -515,6 +596,33 @@
       <c r="C10" s="3">
         <f>B10/B5</f>
         <v>3.0959752321981426E-3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <f>SUM(G8:G9)</f>
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
+        <f>G10/G5</f>
+        <v>5.5944055944055944E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/차종분류시험.xlsx
+++ b/차종분류시험.xlsx
@@ -441,7 +441,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -578,11 +578,11 @@
         <v>5</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2">
         <f>G9/G5</f>
-        <v>2.7972027972027972E-4</v>
+        <v>5.5944055944055944E-4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -602,11 +602,11 @@
       </c>
       <c r="G10">
         <f>SUM(G8:G9)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" s="3">
         <f>G10/G5</f>
-        <v>5.5944055944055944E-4</v>
+        <v>8.3916083916083916E-4</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
